--- a/F_dataset/ChEMBL/ITK/ITK_preprocessing/ITK_g1.xlsx
+++ b/F_dataset/ChEMBL/ITK/ITK_preprocessing/ITK_g1.xlsx
@@ -660,7 +660,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C73E9150&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A3551C0&gt;</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C73E91C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A355230&gt;</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C73E9230&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A3552A0&gt;</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C73E92A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A355310&gt;</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C73E9310&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A355380&gt;</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C73E9380&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A3553F0&gt;</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C73E93F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A355460&gt;</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1435,7 +1435,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C73E9460&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A3554D0&gt;</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C73E94D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A355540&gt;</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -1661,7 +1661,7 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C73E9540&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A3555B0&gt;</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -1774,7 +1774,7 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C73E95B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A355620&gt;</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C73E9620&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A355690&gt;</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -2000,7 +2000,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C73E9690&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A355700&gt;</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2113,7 +2113,7 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C73E9700&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A355770&gt;</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -2226,7 +2226,7 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C73E9770&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A3557E0&gt;</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
@@ -2339,7 +2339,7 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C73E97E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A355850&gt;</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -2452,7 +2452,7 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C73E9850&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A3558C0&gt;</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
@@ -2565,7 +2565,7 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C73E98C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A355930&gt;</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
@@ -2678,7 +2678,7 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C73E9930&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A3559A0&gt;</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
@@ -2795,7 +2795,7 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C73E99A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A355A10&gt;</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
@@ -2908,7 +2908,7 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C73E9A10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A355A80&gt;</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -3017,7 +3017,7 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C73E9A80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A355AF0&gt;</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -3134,7 +3134,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C73E9AF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A355B60&gt;</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -3251,7 +3251,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C73E9B60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A355BD0&gt;</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
@@ -3364,7 +3364,7 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C73E9BD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A355C40&gt;</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
@@ -3477,7 +3477,7 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C73E9C40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A355CB0&gt;</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -3590,7 +3590,7 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C73E9CB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A355D20&gt;</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
@@ -3707,7 +3707,7 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C73E9D20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A355D90&gt;</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
@@ -3824,7 +3824,7 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C73E9D90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A355E00&gt;</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
@@ -3937,7 +3937,7 @@
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C73E9E00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A355E70&gt;</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
@@ -4050,7 +4050,7 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C73E9E70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A355EE0&gt;</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
@@ -4163,7 +4163,7 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C73E9EE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A355F50&gt;</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
@@ -4276,7 +4276,7 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C73E9F50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A355FC0&gt;</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
@@ -4389,7 +4389,7 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C73E9FC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A356030&gt;</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
@@ -4498,7 +4498,7 @@
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C73EA030&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A3560A0&gt;</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
@@ -4607,7 +4607,7 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C73EA0A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A356110&gt;</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
@@ -4720,7 +4720,7 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C73EA110&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A356180&gt;</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
@@ -4833,7 +4833,7 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C73EA180&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A3561F0&gt;</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
@@ -4946,7 +4946,7 @@
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C73EA1F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A356260&gt;</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
@@ -5059,7 +5059,7 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C73EA260&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A3562D0&gt;</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C73EA2D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A356340&gt;</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
@@ -5285,7 +5285,7 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C73EA340&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A3563B0&gt;</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
@@ -5398,7 +5398,7 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C73EA3B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A356420&gt;</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
@@ -5511,7 +5511,7 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C73EA420&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A356490&gt;</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
@@ -5624,7 +5624,7 @@
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C73EA490&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A356500&gt;</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C73EA500&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A356570&gt;</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
@@ -5850,7 +5850,7 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C73EA570&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A3565E0&gt;</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
@@ -5967,7 +5967,7 @@
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C73EA5E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A356650&gt;</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
@@ -6080,7 +6080,7 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C73EA650&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A3566C0&gt;</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
@@ -6193,7 +6193,7 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C73EA6C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A356730&gt;</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
